--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2649.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2649.xlsx
@@ -354,7 +354,7 @@
         <v>1.472506089581676</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.393701631228132</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2649.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2649.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8434866836166863</v>
+        <v>2.087132930755615</v>
       </c>
       <c r="B1">
-        <v>1.472506089581676</v>
+        <v>2.410617351531982</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.433518886566162</v>
       </c>
       <c r="D1">
-        <v>1.393701631228132</v>
+        <v>2.912941217422485</v>
       </c>
       <c r="E1">
-        <v>0.8521599891787242</v>
+        <v>0.7953464984893799</v>
       </c>
     </row>
   </sheetData>
